--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1982583.395418091</v>
+        <v>1980331.315706884</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>63.25786276724418</v>
+        <v>114.4918089738222</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>61.42978662487899</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.99473116157623</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>201.6622187863195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>59.21642570991463</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>128.253870317768</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>243.5879073424597</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>82.70057996958639</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>4.713266813875332e-12</v>
       </c>
       <c r="D16" t="n">
-        <v>81.07546534818459</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.80004727403</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>41.33703994143323</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>38.95525409458267</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.33703994142596</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740302</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204827</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.836054204827</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2343.707767180343</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>2174.771584252436</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>2024.6549448401</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.741851257707</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759797</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3263.555532089091</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3263.555532089091</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>3263.555532089091</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>3263.555532089091</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>2974.13836205213</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>2746.148811154113</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>2525.356232010583</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4565,13 +4565,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,16 +4650,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>759.2995336040055</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3633506760987</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>440.2467112637629</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>440.2467112637629</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>440.2467112637629</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>272.5438746384818</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>126.3266878563396</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1161.740577577775</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>940.9479984342453</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2763.289014265479</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2432.226126921908</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2079.457471651794</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2079.457471651794</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1689.318139675982</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,22 +5033,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>214.9229991561132</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>214.9229991561132</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>710.248605371872</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101821</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>363.7369613277307</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277307</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>216.8470138298203</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>216.8470138298203</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703146</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424077</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703146</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978464</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>274.8772357154533</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>274.8772357154533</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>133.1654045576514</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6674,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6862,46 +6862,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797705</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703073</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298206</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7102,43 +7102,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,19 +7312,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>67.54000767002776</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>18.49466557219391</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>107.2784330767791</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>42.31058222398285</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8157004124957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4949402405113</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823864</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797157</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857872.9770797162</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797157</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
@@ -26323,10 +26323,10 @@
         <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830046</v>
@@ -26335,13 +26335,13 @@
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
@@ -26350,10 +26350,10 @@
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179352</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>11167.03225179355</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.0322517935</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="G4" t="n">
-        <v>11167.03225179349</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179349</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179352</v>
-      </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26451,13 +26451,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952303.5144071323</v>
+        <v>-952303.5144071322</v>
       </c>
       <c r="C6" t="n">
-        <v>376441.2313204604</v>
+        <v>376441.2313204606</v>
       </c>
       <c r="D6" t="n">
         <v>376441.2313204604</v>
       </c>
       <c r="E6" t="n">
-        <v>127300.5958999487</v>
+        <v>127265.8579745133</v>
       </c>
       <c r="F6" t="n">
-        <v>452713.0577073037</v>
+        <v>452678.3197818682</v>
       </c>
       <c r="G6" t="n">
-        <v>452713.0577073038</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="H6" t="n">
-        <v>452713.057707304</v>
+        <v>452678.3197818683</v>
       </c>
       <c r="I6" t="n">
-        <v>452713.0577073038</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="J6" t="n">
-        <v>235181.8553100264</v>
+        <v>235147.1173845907</v>
       </c>
       <c r="K6" t="n">
-        <v>452713.0577073038</v>
+        <v>452678.3197818683</v>
       </c>
       <c r="L6" t="n">
-        <v>452713.0577073039</v>
+        <v>452678.3197818683</v>
       </c>
       <c r="M6" t="n">
-        <v>367658.029771792</v>
+        <v>367623.2918463565</v>
       </c>
       <c r="N6" t="n">
-        <v>452713.0577073038</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="O6" t="n">
-        <v>452713.0577073038</v>
+        <v>452678.3197818679</v>
       </c>
       <c r="P6" t="n">
-        <v>452713.057707304</v>
+        <v>452678.3197818681</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>291.4251788534388</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>128.3392387065629</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>26.19303062659961</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>168.0688818921495</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>37.13599469992346</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>226.4291713029149</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7.407264616442234</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>83.32522828944184</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>249.1672590991327</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>122.329632432466</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899105</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191275</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37470,7 +37470,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
